--- a/Excel/Language/#genFromCode.xlsx
+++ b/Excel/Language/#genFromCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14115"/>
+    <workbookView windowWidth="26325" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -54,10 +54,22 @@
     <t>a</t>
   </si>
   <si>
-    <t>english</t>
+    <t/>
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>卢卡斯的积分</t>
+  </si>
+  <si>
+    <t>Program[MoveNext]</t>
+  </si>
+  <si>
+    <t>劳动节快乐感觉</t>
+  </si>
+  <si>
+    <t>EC_LanguageChange[.ctor]</t>
   </si>
 </sst>
 </file>
@@ -533,148 +545,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,13 +1045,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="27.875" customWidth="1"/>
@@ -1068,16 +1080,38 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language/#genFromCode.xlsx
+++ b/Excel/Language/#genFromCode.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -11,8 +11,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -35,47 +35,47 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>key</t>
+      <t xml:space="preserve">key</t>
     </r>
   </si>
   <si>
-    <t>中文</t>
+    <t xml:space="preserve">中文</t>
   </si>
   <si>
-    <t>英语</t>
+    <t xml:space="preserve">英语</t>
   </si>
   <si>
-    <t>Chinese</t>
+    <t xml:space="preserve">Chinese</t>
   </si>
   <si>
-    <t>English</t>
+    <t xml:space="preserve">English</t>
   </si>
   <si>
-    <t>a</t>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve"/>
   </si>
   <si>
-    <t>b</t>
+    <t xml:space="preserve">b</t>
   </si>
   <si>
-    <t>卢卡斯的积分</t>
+    <t xml:space="preserve">卢卡斯的积分</t>
   </si>
   <si>
-    <t>Program[MoveNext]</t>
+    <t xml:space="preserve">Program[MoveNext]</t>
   </si>
   <si>
-    <t>劳动节快乐感觉</t>
+    <t xml:space="preserve">劳动节快乐感觉</t>
   </si>
   <si>
-    <t>EC_LanguageChange[.ctor]</t>
+    <t xml:space="preserve">EC_LanguageChange[.ctor]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -91,7 +91,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -99,7 +99,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
@@ -751,8 +751,8 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -981,7 +981,7 @@
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
-          <a:sp3d>
+          <a:sp3d prstMaterial="warmMatte">
             <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
@@ -1043,9 +1043,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1057,14 +1057,14 @@
     <col min="2" max="2" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="12" customHeight="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1077,41 +1077,41 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
